--- a/results/logbook.xlsx
+++ b/results/logbook.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Library/CloudStorage/OneDrive-VrijeUniversiteitBrussel/img-analysis_seorin_project/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C62A8-4145-0045-AF84-E46AA026CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -383,32 +383,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -750,16 +750,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="2" max="2" width="36.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -777,152 +777,152 @@
       <c r="D2" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="18" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
     </row>
